--- a/R/assets/Data Total No R.xlsx
+++ b/R/assets/Data Total No R.xlsx
@@ -202,7 +202,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -545,7 +545,7 @@
     <col min="25" max="25" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -681,7 +681,7 @@
         <v>87.75</v>
       </c>
       <c r="T2" s="5">
-        <v>13.3</v>
+        <v>26.13</v>
       </c>
       <c r="U2" s="5">
         <v>307.4233</v>
@@ -699,7 +699,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -758,7 +758,7 @@
         <v>70.66667</v>
       </c>
       <c r="T3" s="5">
-        <v>12.57667</v>
+        <v>27.21</v>
       </c>
       <c r="U3" s="5">
         <v>294.6133</v>
@@ -776,7 +776,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>89.08333</v>
       </c>
       <c r="T4" s="5">
-        <v>13.07667</v>
+        <v>25.08</v>
       </c>
       <c r="U4" s="5">
         <v>299.9567</v>
@@ -853,7 +853,7 @@
         <v>13.70667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -912,7 +912,7 @@
         <v>129.71667</v>
       </c>
       <c r="T5" s="5">
-        <v>13.61333</v>
+        <v>27.58</v>
       </c>
       <c r="U5" s="5">
         <v>285.5467</v>
@@ -930,7 +930,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -989,7 +989,7 @@
         <v>98.83333</v>
       </c>
       <c r="T6" s="5">
-        <v>16.22</v>
+        <v>31.32</v>
       </c>
       <c r="U6" s="5">
         <v>354.7867</v>
@@ -1007,7 +1007,7 @@
         <v>18.66333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>132.42333</v>
       </c>
       <c r="T7" s="5">
-        <v>19.87</v>
+        <v>20.5</v>
       </c>
       <c r="U7" s="5">
         <v>441.1967</v>
@@ -1084,7 +1084,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>138.41667</v>
       </c>
       <c r="T8" s="5">
-        <v>16.18667</v>
+        <v>38.19</v>
       </c>
       <c r="U8" s="5">
         <v>380.96</v>
@@ -1161,7 +1161,7 @@
         <v>12.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>124.5</v>
       </c>
       <c r="T9" s="5">
-        <v>15.93333</v>
+        <v>32.32</v>
       </c>
       <c r="U9" s="5">
         <v>360.1733</v>
@@ -1238,7 +1238,7 @@
         <v>17.46333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>83.13333</v>
       </c>
       <c r="T10" s="5">
-        <v>11.83333</v>
+        <v>15.17</v>
       </c>
       <c r="U10" s="5">
         <v>269.6533</v>
@@ -1315,7 +1315,7 @@
         <v>13.30333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>85.75</v>
       </c>
       <c r="T11" s="5">
-        <v>12.85</v>
+        <v>30.06</v>
       </c>
       <c r="U11" s="5">
         <v>293.42</v>
@@ -1392,7 +1392,7 @@
         <v>17.47333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>99.49667</v>
       </c>
       <c r="T12" s="5">
-        <v>11.87333</v>
+        <v>35.21</v>
       </c>
       <c r="U12" s="5">
         <v>263.6567</v>
@@ -1469,7 +1469,7 @@
         <v>14.54667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>98.33333</v>
       </c>
       <c r="T13" s="5">
-        <v>16.82</v>
+        <v>29.73</v>
       </c>
       <c r="U13" s="5">
         <v>333.7567</v>

--- a/R/assets/Data Total No R.xlsx
+++ b/R/assets/Data Total No R.xlsx
@@ -684,7 +684,7 @@
         <v>26.13</v>
       </c>
       <c r="U2" s="5">
-        <v>307.4233</v>
+        <v>299.96</v>
       </c>
       <c r="V2" s="5">
         <v>6.426667</v>
@@ -761,7 +761,7 @@
         <v>27.21</v>
       </c>
       <c r="U3" s="5">
-        <v>294.6133</v>
+        <v>285.55</v>
       </c>
       <c r="V3" s="5">
         <v>8.686667</v>
@@ -838,7 +838,7 @@
         <v>25.08</v>
       </c>
       <c r="U4" s="5">
-        <v>299.9567</v>
+        <v>354.79</v>
       </c>
       <c r="V4" s="5">
         <v>7.173333</v>
@@ -915,7 +915,7 @@
         <v>27.58</v>
       </c>
       <c r="U5" s="5">
-        <v>285.5467</v>
+        <v>441.2</v>
       </c>
       <c r="V5" s="5">
         <v>6.47</v>
@@ -992,7 +992,7 @@
         <v>31.32</v>
       </c>
       <c r="U6" s="5">
-        <v>354.7867</v>
+        <v>453.19</v>
       </c>
       <c r="V6" s="5">
         <v>7.68</v>
@@ -1069,7 +1069,7 @@
         <v>20.5</v>
       </c>
       <c r="U7" s="5">
-        <v>441.1967</v>
+        <v>360.17</v>
       </c>
       <c r="V7" s="5">
         <v>8.273333</v>
@@ -1146,7 +1146,7 @@
         <v>38.19</v>
       </c>
       <c r="U8" s="5">
-        <v>380.96</v>
+        <v>269.65</v>
       </c>
       <c r="V8" s="5">
         <v>6.766667</v>
@@ -1223,7 +1223,7 @@
         <v>32.32</v>
       </c>
       <c r="U9" s="5">
-        <v>360.1733</v>
+        <v>293.42</v>
       </c>
       <c r="V9" s="5">
         <v>7.85</v>
@@ -1300,7 +1300,7 @@
         <v>15.17</v>
       </c>
       <c r="U10" s="5">
-        <v>269.6533</v>
+        <v>263.66</v>
       </c>
       <c r="V10" s="5">
         <v>6.506667</v>
@@ -1377,7 +1377,7 @@
         <v>30.06</v>
       </c>
       <c r="U11" s="5">
-        <v>293.42</v>
+        <v>333.76</v>
       </c>
       <c r="V11" s="5">
         <v>7.343333</v>
@@ -1454,7 +1454,7 @@
         <v>35.21</v>
       </c>
       <c r="U12" s="5">
-        <v>263.6567</v>
+        <v>307.42</v>
       </c>
       <c r="V12" s="5">
         <v>7.256667</v>
@@ -1531,7 +1531,7 @@
         <v>29.73</v>
       </c>
       <c r="U13" s="5">
-        <v>333.7567</v>
+        <v>294.61</v>
       </c>
       <c r="V13" s="5">
         <v>6.976667</v>

--- a/R/assets/Data Total No R.xlsx
+++ b/R/assets/Data Total No R.xlsx
@@ -684,7 +684,7 @@
         <v>26.13</v>
       </c>
       <c r="U2" s="5">
-        <v>299.96</v>
+        <v>307.42</v>
       </c>
       <c r="V2" s="5">
         <v>6.426667</v>
@@ -761,7 +761,7 @@
         <v>27.21</v>
       </c>
       <c r="U3" s="5">
-        <v>285.55</v>
+        <v>294.61</v>
       </c>
       <c r="V3" s="5">
         <v>8.686667</v>
@@ -838,7 +838,7 @@
         <v>25.08</v>
       </c>
       <c r="U4" s="5">
-        <v>354.79</v>
+        <v>299.957</v>
       </c>
       <c r="V4" s="5">
         <v>7.173333</v>
@@ -915,7 +915,7 @@
         <v>27.58</v>
       </c>
       <c r="U5" s="5">
-        <v>441.2</v>
+        <v>285.54</v>
       </c>
       <c r="V5" s="5">
         <v>6.47</v>
@@ -992,7 +992,7 @@
         <v>31.32</v>
       </c>
       <c r="U6" s="5">
-        <v>453.19</v>
+        <v>354.78</v>
       </c>
       <c r="V6" s="5">
         <v>7.68</v>
@@ -1069,7 +1069,7 @@
         <v>20.5</v>
       </c>
       <c r="U7" s="5">
-        <v>360.17</v>
+        <v>453.19</v>
       </c>
       <c r="V7" s="5">
         <v>8.273333</v>
@@ -1146,7 +1146,7 @@
         <v>38.19</v>
       </c>
       <c r="U8" s="5">
-        <v>269.65</v>
+        <v>441.19</v>
       </c>
       <c r="V8" s="5">
         <v>6.766667</v>
@@ -1223,7 +1223,7 @@
         <v>32.32</v>
       </c>
       <c r="U9" s="5">
-        <v>293.42</v>
+        <v>360.17</v>
       </c>
       <c r="V9" s="5">
         <v>7.85</v>
@@ -1300,7 +1300,7 @@
         <v>15.17</v>
       </c>
       <c r="U10" s="5">
-        <v>263.66</v>
+        <v>269.65</v>
       </c>
       <c r="V10" s="5">
         <v>6.506667</v>
@@ -1377,7 +1377,7 @@
         <v>30.06</v>
       </c>
       <c r="U11" s="5">
-        <v>333.76</v>
+        <v>293.42</v>
       </c>
       <c r="V11" s="5">
         <v>7.343333</v>
@@ -1454,7 +1454,7 @@
         <v>35.21</v>
       </c>
       <c r="U12" s="5">
-        <v>307.42</v>
+        <v>263.65</v>
       </c>
       <c r="V12" s="5">
         <v>7.256667</v>
@@ -1531,7 +1531,7 @@
         <v>29.73</v>
       </c>
       <c r="U13" s="5">
-        <v>294.61</v>
+        <v>333.757</v>
       </c>
       <c r="V13" s="5">
         <v>6.976667</v>

--- a/R/assets/Data Total No R.xlsx
+++ b/R/assets/Data Total No R.xlsx
@@ -91,40 +91,40 @@
     <t>B100</t>
   </si>
   <si>
-    <t>G32</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>G16</t>
-  </si>
-  <si>
-    <t>G17</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>G19</t>
-  </si>
-  <si>
-    <t>G20</t>
+    <t>Argopuro</t>
+  </si>
+  <si>
+    <t>Grobogan</t>
+  </si>
+  <si>
+    <t>UBASK31</t>
+  </si>
+  <si>
+    <t>UBASK36</t>
+  </si>
+  <si>
+    <t>UBASK34</t>
+  </si>
+  <si>
+    <t>UBASK32</t>
+  </si>
+  <si>
+    <t>UBASK35</t>
+  </si>
+  <si>
+    <t>UBASK41</t>
+  </si>
+  <si>
+    <t>UBASK46</t>
+  </si>
+  <si>
+    <t>UBASK43</t>
+  </si>
+  <si>
+    <t>UBASK42</t>
+  </si>
+  <si>
+    <t>UBASK45</t>
   </si>
 </sst>
 </file>
